--- a/resource/security/CheckSuspicious.xlsx
+++ b/resource/security/CheckSuspicious.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Cdd No.</t>
   </si>
@@ -34,16 +34,31 @@
   </si>
   <si>
     <t>Delete</t>
+  </si>
+  <si>
+    <t>910002,910003,910004,910005</t>
+  </si>
+  <si>
+    <t>Suspicious Reason</t>
+  </si>
+  <si>
+    <t>Dodgy Address</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -68,11 +83,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,35 +391,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="26.125" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>910002</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>910003</v>
       </c>
@@ -410,7 +434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>910004</v>
       </c>
@@ -418,7 +442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>910005</v>
       </c>
@@ -426,8 +450,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
